--- a/lockdown/tables.xlsx
+++ b/lockdown/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/covind_stuff/lockdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98549AE-A749-2A48-9F4F-FEA266FD35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18612F94-F1D3-8543-82FC-FC3CE29FC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26140" windowHeight="17500" activeTab="1" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
   </bookViews>
@@ -158,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,21 +229,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -252,6 +247,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1CF5BC-C769-6242-9933-0DED3FD53C36}">
   <dimension ref="C3:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,24 +592,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -671,13 +678,13 @@
       <c r="F7" s="9">
         <v>11387982</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="6">
@@ -748,7 +755,7 @@
       <c r="H9" s="9">
         <v>14176161</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -856,25 +863,25 @@
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="5">
+      <c r="C12" s="17">
         <v>44346</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="18">
         <v>32861700</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="18">
         <v>11308276</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="18">
         <v>11643773</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="18">
         <v>12996648</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="18">
         <v>18788433</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="18">
         <v>29407645</v>
       </c>
       <c r="K12" s="6">
@@ -899,25 +906,25 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="10">
+      <c r="C13" s="21">
         <v>44362</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="22">
         <v>46674508</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="22">
         <v>11315942</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="22">
         <v>11661174</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="22">
         <v>13098357</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="22">
         <v>19816197</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="22">
         <v>33156821</v>
       </c>
       <c r="K13" s="6">
@@ -942,13 +949,13 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
@@ -1089,70 +1096,70 @@
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="5">
+      <c r="C21" s="17">
         <v>44346</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="18">
         <v>36320459</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="18">
         <v>25008073</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="18">
         <v>24679060</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="18">
         <v>23328516</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="18">
         <v>17518484</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="18">
         <v>6911104</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="14">
+      <c r="C22" s="19">
         <v>44362</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="20">
         <v>56166804</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="20">
         <v>44848172</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="20">
         <v>44509483</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="20">
         <v>43074252</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="20">
         <v>36336764</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="20">
         <v>23015054</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
@@ -1199,14 +1206,14 @@
       <c r="I29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="12">
         <f t="shared" ref="K29:K36" si="3">$D29-E29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="8">
@@ -1221,26 +1228,26 @@
       <c r="F30" s="9">
         <v>158301</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="G30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
         <f t="shared" si="3"/>
         <v>1114</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="12">
         <f t="shared" ref="L30:L36" si="4">$D30-F30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
@@ -1264,20 +1271,20 @@
       <c r="I31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <f t="shared" si="3"/>
         <v>4472</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="12">
         <f t="shared" si="4"/>
         <v>3078</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="12">
         <f t="shared" ref="M31:M36" si="5">$D31-G31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="8">
@@ -1298,26 +1305,26 @@
       <c r="H32" s="9">
         <v>173746</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="I32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
         <f t="shared" si="3"/>
         <v>16141</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="12">
         <f t="shared" si="4"/>
         <v>14540</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="12">
         <f t="shared" si="5"/>
         <v>9829</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="12">
         <f>$D32-H32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="17"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
@@ -1341,23 +1348,23 @@
       <c r="I33" s="6">
         <v>211248</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="12">
         <f t="shared" si="3"/>
         <v>53548</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="12">
         <f t="shared" si="4"/>
         <v>51784</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="12">
         <f t="shared" si="5"/>
         <v>45722</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="12">
         <f>$D33-H33</f>
         <v>25237</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="12">
         <f>$D33-I33</f>
         <v>0</v>
       </c>
@@ -1384,121 +1391,121 @@
       <c r="I34" s="9">
         <v>265714</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <f t="shared" si="3"/>
         <v>111947</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="12">
         <f t="shared" si="4"/>
         <v>110030</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="12">
         <f t="shared" si="5"/>
         <v>102563</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="12">
         <f>$D34-H34</f>
         <v>67842</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="12">
         <f>$D34-I34</f>
         <v>4014</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="5">
+      <c r="C35" s="17">
         <v>44346</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="18">
         <v>372405</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="18">
         <v>157908</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="18">
         <v>160013</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="18">
         <v>168995</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="18">
         <v>220690</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="18">
         <v>340309</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <f t="shared" si="3"/>
         <v>214497</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="12">
         <f t="shared" si="4"/>
         <v>212392</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="12">
         <f t="shared" si="5"/>
         <v>203410</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <f>$D35-H35</f>
         <v>151715</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="12">
         <f>$D35-I35</f>
         <v>32096</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="10">
+      <c r="C36" s="21">
         <v>44362</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="22">
         <v>528938</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="22">
         <v>158036</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="22">
         <v>160304</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="22">
         <v>170695</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="22">
         <v>237861</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="22">
         <v>402945</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="12">
         <f t="shared" si="3"/>
         <v>370902</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="12">
         <f t="shared" si="4"/>
         <v>368634</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="12">
         <f t="shared" si="5"/>
         <v>358243</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="12">
         <f>$D36-H36</f>
         <v>291077</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="12">
         <f>$D36-I36</f>
         <v>125993</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
@@ -1529,25 +1536,25 @@
       <c r="C39" s="8">
         <v>44270</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <f t="shared" ref="D39:D45" si="6">D30</f>
         <v>158301</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <f t="shared" ref="E39:E45" si="7">K30</f>
         <v>1114</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <f t="shared" ref="F39:F45" si="8">L30</f>
         <v>0</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="G39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1582,27 +1589,27 @@
       <c r="C41" s="8">
         <v>44301</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <f t="shared" si="6"/>
         <v>173746</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <f t="shared" si="7"/>
         <v>16141</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <f t="shared" si="8"/>
         <v>14540</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <f t="shared" si="9"/>
         <v>9829</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f>N32</f>
         <v>0</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1639,99 +1646,99 @@
       <c r="C43" s="8">
         <v>44331</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <f t="shared" si="6"/>
         <v>269728</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <f t="shared" si="7"/>
         <v>111947</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <f t="shared" si="8"/>
         <v>110030</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="11">
         <f t="shared" si="9"/>
         <v>102563</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <f>N34</f>
         <v>67842</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="11">
         <f>O34</f>
         <v>4014</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="5">
+      <c r="C44" s="17">
         <v>44346</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="18">
         <f t="shared" si="6"/>
         <v>372405</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="18">
         <f t="shared" si="7"/>
         <v>214497</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="18">
         <f t="shared" si="8"/>
         <v>212392</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="18">
         <f t="shared" si="9"/>
         <v>203410</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="18">
         <f>N35</f>
         <v>151715</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="18">
         <f>O35</f>
         <v>32096</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C45" s="14">
+      <c r="C45" s="19">
         <v>44362</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="20">
         <f t="shared" si="6"/>
         <v>528938</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="18">
         <f t="shared" si="7"/>
         <v>370902</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="18">
         <f t="shared" si="8"/>
         <v>368634</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="18">
         <f t="shared" si="9"/>
         <v>358243</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="18">
         <f>N36</f>
         <v>291077</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="18">
         <f>O36</f>
         <v>125993</v>
       </c>
     </row>
     <row r="46" spans="3:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1751,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423F2FD6-FB65-754C-A3E4-879DCE752512}">
   <dimension ref="C3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1767,24 +1774,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -1853,13 +1860,13 @@
       <c r="F7" s="9">
         <v>11388905</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="6">
@@ -1930,7 +1937,7 @@
       <c r="H9" s="9">
         <v>14176643</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -2038,25 +2045,25 @@
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="5">
+      <c r="C12" s="17">
         <v>44346</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="18">
         <v>32861103</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="18">
         <v>11475279</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="18">
         <v>11839203</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="18">
         <v>13700842</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="18">
         <v>22479641</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="18">
         <v>34483714</v>
       </c>
       <c r="K12" s="6">
@@ -2081,25 +2088,25 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="10">
+      <c r="C13" s="21">
         <v>44362</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="22">
         <v>46681237</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="22">
         <v>11504863</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="22">
         <v>11900281</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="22">
         <v>14144564</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="22">
         <v>27096468</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="22">
         <v>46582181</v>
       </c>
       <c r="K13" s="6">
@@ -2124,13 +2131,13 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
@@ -2163,21 +2170,21 @@
       <c r="D16" s="9">
         <v>11409517</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" ref="E16:E22" si="3">K7</f>
         <v>197882</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <f t="shared" ref="F16:F22" si="4">L7</f>
         <v>20612</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="G16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2214,23 +2221,23 @@
       <c r="D18" s="9">
         <v>14287843</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" si="3"/>
         <v>2933899</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" si="4"/>
         <v>2666923</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f t="shared" si="5"/>
         <v>1753585</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f>N9</f>
         <v>111200</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2269,102 +2276,102 @@
       <c r="D20" s="9">
         <v>24683025</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
         <v>13241618</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" si="4"/>
         <v>12906819</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f t="shared" si="5"/>
         <v>11371494</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>N11</f>
         <v>5632064</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f>O11</f>
         <v>-950617</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="5">
+      <c r="C21" s="17">
         <v>44346</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="18">
         <v>36320459</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="18">
         <f t="shared" si="3"/>
         <v>21385824</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="18">
         <f t="shared" si="4"/>
         <v>21021900</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="18">
         <f t="shared" si="5"/>
         <v>19160261</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="18">
         <f>N12</f>
         <v>10381462</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="18">
         <f>O12</f>
         <v>-1622611</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="14">
+      <c r="C22" s="19">
         <v>44362</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="20">
         <v>56166804</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="20">
         <f t="shared" si="3"/>
         <v>35176374</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="20">
         <f t="shared" si="4"/>
         <v>34780956</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="20">
         <f t="shared" si="5"/>
         <v>32536673</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="20">
         <f>N13</f>
         <v>19584769</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="20">
         <f>O13</f>
         <v>99056</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
@@ -2411,14 +2418,14 @@
       <c r="I29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="12">
         <f t="shared" ref="K29:K36" si="6">$D29-E29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="8">
@@ -2433,26 +2440,26 @@
       <c r="F30" s="9">
         <v>158301</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="G30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
         <f t="shared" si="6"/>
         <v>1131</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="12">
         <f t="shared" ref="L30:L36" si="7">$D30-F30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
@@ -2476,20 +2483,20 @@
       <c r="I31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <f t="shared" si="6"/>
         <v>4473</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="12">
         <f t="shared" si="7"/>
         <v>3172</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="12">
         <f t="shared" ref="M31:M36" si="8">$D31-G31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="8">
@@ -2510,26 +2517,26 @@
       <c r="H32" s="9">
         <v>173746</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="I32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
         <f t="shared" si="6"/>
         <v>15967</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="12">
         <f t="shared" si="7"/>
         <v>14456</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="12">
         <f t="shared" si="8"/>
         <v>9634</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="12">
         <f>$D32-H32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="17"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
@@ -2553,23 +2560,23 @@
       <c r="I33" s="6">
         <v>211248</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="12">
         <f t="shared" si="6"/>
         <v>53061</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="12">
         <f t="shared" si="7"/>
         <v>51271</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="12">
         <f t="shared" si="8"/>
         <v>43824</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="12">
         <f>$D33-H33</f>
         <v>19158</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="12">
         <f>$D33-I33</f>
         <v>0</v>
       </c>
@@ -2596,121 +2603,121 @@
       <c r="I34" s="9">
         <v>307540</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <f t="shared" si="6"/>
         <v>110976</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="12">
         <f t="shared" si="7"/>
         <v>108696</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="12">
         <f t="shared" si="8"/>
         <v>96665</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="12">
         <f>$D34-H34</f>
         <v>37018</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="12">
         <f>$D34-I34</f>
         <v>-37812</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="5">
+      <c r="C35" s="17">
         <v>44346</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="18">
         <v>372398</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="18">
         <v>159801</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="18">
         <v>163010</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="18">
         <v>185343</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="18">
         <v>341403</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="18">
         <v>588605</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <f t="shared" si="6"/>
         <v>212597</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="12">
         <f t="shared" si="7"/>
         <v>209388</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="12">
         <f t="shared" si="8"/>
         <v>187055</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <f>$D35-H35</f>
         <v>30995</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="12">
         <f>$D35-I35</f>
         <v>-216207</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="10">
+      <c r="C36" s="21">
         <v>44362</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="22">
         <v>529014</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="22">
         <v>160818</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="22">
         <v>165110</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="22">
         <v>200600</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="22">
         <v>500158</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="22">
         <v>1004625</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="12">
         <f t="shared" si="6"/>
         <v>368196</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="12">
         <f t="shared" si="7"/>
         <v>363904</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="12">
         <f t="shared" si="8"/>
         <v>328414</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="12">
         <f>$D36-H36</f>
         <v>28856</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="12">
         <f>$D36-I36</f>
         <v>-475611</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
@@ -2741,25 +2748,25 @@
       <c r="C39" s="8">
         <v>44270</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <f t="shared" ref="D39:D45" si="10">D30</f>
         <v>158301</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <f t="shared" si="9"/>
         <v>1131</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <f t="shared" ref="F39:F45" si="11">L30</f>
         <v>0</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="G39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2794,27 +2801,27 @@
       <c r="C41" s="8">
         <v>44301</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <f t="shared" si="10"/>
         <v>173746</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <f t="shared" si="9"/>
         <v>15967</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <f t="shared" si="11"/>
         <v>14456</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <f t="shared" si="12"/>
         <v>9634</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f>N32</f>
         <v>0</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2851,99 +2858,99 @@
       <c r="C43" s="8">
         <v>44331</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <f t="shared" si="10"/>
         <v>269728</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <f t="shared" si="9"/>
         <v>110976</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <f t="shared" si="11"/>
         <v>108696</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="11">
         <f t="shared" si="12"/>
         <v>96665</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <f>N34</f>
         <v>37018</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="11">
         <f>O34</f>
         <v>-37812</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="5">
+      <c r="C44" s="17">
         <v>44346</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="18">
         <f t="shared" si="10"/>
         <v>372398</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="18">
         <f t="shared" si="9"/>
         <v>212597</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="18">
         <f t="shared" si="11"/>
         <v>209388</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="18">
         <f t="shared" si="12"/>
         <v>187055</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="18">
         <f>N35</f>
         <v>30995</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="18">
         <f>O35</f>
         <v>-216207</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C45" s="14">
+      <c r="C45" s="19">
         <v>44362</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="20">
         <f t="shared" si="10"/>
         <v>529014</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="18">
         <f t="shared" si="9"/>
         <v>368196</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="18">
         <f t="shared" si="11"/>
         <v>363904</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="18">
         <f t="shared" si="12"/>
         <v>328414</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="18">
         <f>N36</f>
         <v>28856</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="18">
         <f>O36</f>
         <v>-475611</v>
       </c>
     </row>
     <row r="46" spans="3:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/lockdown/tables.xlsx
+++ b/lockdown/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/covind_stuff/lockdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750822EE-618B-5342-AA05-ACD2BA2359F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A66C4-7987-4842-A4DF-7F0B13AB6C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="7" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{B3E001DA-FE62-B74F-A74D-2CE97A02E934}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_cases" sheetId="3" r:id="rId1"/>
@@ -3474,72 +3474,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3553,9 +3487,6 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3567,6 +3498,75 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3886,7 +3886,7 @@
   <dimension ref="C3:AP52"/>
   <sheetViews>
     <sheetView topLeftCell="AC38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG50" sqref="AG50:AO50"/>
+      <selection activeCell="AG42" sqref="AG42:AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3898,7 +3898,7 @@
     <col min="24" max="24" width="7.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="32" width="10.83203125" style="11"/>
-    <col min="33" max="33" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
@@ -3908,60 +3908,60 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="X3" s="156" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="X3" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
     </row>
     <row r="4" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="X4" s="157" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="X4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
     </row>
     <row r="5" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="Z5" s="155" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="Z5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
     </row>
     <row r="6" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
@@ -4477,40 +4477,40 @@
       </c>
     </row>
     <row r="12" spans="3:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="X12" s="155" t="s">
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="X12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
     </row>
     <row r="13" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="Z13" s="155" t="s">
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="Z13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
     </row>
     <row r="14" spans="3:30" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
@@ -5112,34 +5112,34 @@
     </row>
     <row r="25" spans="3:42" x14ac:dyDescent="0.2">
       <c r="AF25" s="105"/>
-      <c r="AG25" s="154" t="s">
+      <c r="AG25" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="AH25" s="154"/>
-      <c r="AI25" s="154"/>
-      <c r="AJ25" s="154"/>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="154"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="159"/>
+      <c r="AJ25" s="159"/>
+      <c r="AK25" s="159"/>
+      <c r="AL25" s="159"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="159"/>
+      <c r="AO25" s="159"/>
       <c r="AP25" s="46"/>
     </row>
     <row r="26" spans="3:42" x14ac:dyDescent="0.2">
       <c r="AF26" s="105"/>
       <c r="AG26" s="105"/>
-      <c r="AH26" s="151" t="s">
+      <c r="AH26" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="AI26" s="152"/>
-      <c r="AJ26" s="152"/>
-      <c r="AK26" s="153"/>
-      <c r="AL26" s="151" t="s">
+      <c r="AI26" s="161"/>
+      <c r="AJ26" s="161"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="152"/>
-      <c r="AO26" s="152"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="161"/>
+      <c r="AO26" s="161"/>
       <c r="AP26" s="46"/>
     </row>
     <row r="27" spans="3:42" x14ac:dyDescent="0.2">
@@ -5330,17 +5330,17 @@
     </row>
     <row r="33" spans="32:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AF33" s="126"/>
-      <c r="AG33" s="150" t="s">
+      <c r="AG33" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="150"/>
-      <c r="AJ33" s="150"/>
-      <c r="AK33" s="150"/>
-      <c r="AL33" s="150"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="150"/>
-      <c r="AO33" s="150"/>
+      <c r="AH33" s="163"/>
+      <c r="AI33" s="163"/>
+      <c r="AJ33" s="163"/>
+      <c r="AK33" s="163"/>
+      <c r="AL33" s="163"/>
+      <c r="AM33" s="163"/>
+      <c r="AN33" s="163"/>
+      <c r="AO33" s="163"/>
       <c r="AP33" s="54"/>
     </row>
     <row r="34" spans="32:42" x14ac:dyDescent="0.2">
@@ -5384,34 +5384,34 @@
     </row>
     <row r="42" spans="32:42" x14ac:dyDescent="0.2">
       <c r="AF42" s="105"/>
-      <c r="AG42" s="154" t="s">
+      <c r="AG42" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="AH42" s="154"/>
-      <c r="AI42" s="154"/>
-      <c r="AJ42" s="154"/>
-      <c r="AK42" s="154"/>
-      <c r="AL42" s="154"/>
-      <c r="AM42" s="154"/>
-      <c r="AN42" s="154"/>
-      <c r="AO42" s="154"/>
+      <c r="AH42" s="159"/>
+      <c r="AI42" s="159"/>
+      <c r="AJ42" s="159"/>
+      <c r="AK42" s="159"/>
+      <c r="AL42" s="159"/>
+      <c r="AM42" s="159"/>
+      <c r="AN42" s="159"/>
+      <c r="AO42" s="159"/>
       <c r="AP42" s="46"/>
     </row>
     <row r="43" spans="32:42" x14ac:dyDescent="0.2">
       <c r="AF43" s="105"/>
       <c r="AG43" s="105"/>
-      <c r="AH43" s="151" t="s">
+      <c r="AH43" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="AI43" s="152"/>
-      <c r="AJ43" s="152"/>
-      <c r="AK43" s="153"/>
-      <c r="AL43" s="151" t="s">
+      <c r="AI43" s="161"/>
+      <c r="AJ43" s="161"/>
+      <c r="AK43" s="162"/>
+      <c r="AL43" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="AM43" s="152"/>
-      <c r="AN43" s="152"/>
-      <c r="AO43" s="152"/>
+      <c r="AM43" s="161"/>
+      <c r="AN43" s="161"/>
+      <c r="AO43" s="161"/>
       <c r="AP43" s="46"/>
     </row>
     <row r="44" spans="32:42" x14ac:dyDescent="0.2">
@@ -5552,7 +5552,7 @@
       <c r="AJ48" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="AK48" s="174" t="s">
+      <c r="AK48" s="152" t="s">
         <v>236</v>
       </c>
       <c r="AL48" s="140" t="s">
@@ -5602,17 +5602,17 @@
     </row>
     <row r="50" spans="32:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AF50" s="126"/>
-      <c r="AG50" s="150" t="s">
+      <c r="AG50" s="163" t="s">
         <v>373</v>
       </c>
-      <c r="AH50" s="150"/>
-      <c r="AI50" s="150"/>
-      <c r="AJ50" s="150"/>
-      <c r="AK50" s="150"/>
-      <c r="AL50" s="150"/>
-      <c r="AM50" s="150"/>
-      <c r="AN50" s="150"/>
-      <c r="AO50" s="150"/>
+      <c r="AH50" s="163"/>
+      <c r="AI50" s="163"/>
+      <c r="AJ50" s="163"/>
+      <c r="AK50" s="163"/>
+      <c r="AL50" s="163"/>
+      <c r="AM50" s="163"/>
+      <c r="AN50" s="163"/>
+      <c r="AO50" s="163"/>
       <c r="AP50" s="54"/>
     </row>
     <row r="51" spans="32:42" x14ac:dyDescent="0.2">
@@ -5643,6 +5643,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AG25:AO25"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="AG42:AO42"/>
     <mergeCell ref="AH43:AK43"/>
     <mergeCell ref="AL43:AO43"/>
@@ -5659,8 +5661,6 @@
     <mergeCell ref="AG33:AO33"/>
     <mergeCell ref="AH26:AK26"/>
     <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AG25:AO25"/>
-    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5670,7 +5670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AEE3FC-E657-E742-B477-48436277DFBE}">
   <dimension ref="A2:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O17" sqref="O17:R21"/>
     </sheetView>
   </sheetViews>
@@ -5700,36 +5700,36 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="159" t="s">
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="28">
         <v>44301</v>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:23" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="52">
         <v>44316</v>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="L9" s="50"/>
     </row>
-    <row r="10" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="77">
         <v>44331</v>
@@ -5938,18 +5938,18 @@
     </row>
     <row r="11" spans="1:23" ht="61" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -5981,34 +5981,34 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M14" s="50"/>
-      <c r="N14" s="161" t="s">
+      <c r="N14" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
       <c r="W14" s="50"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M15" s="50"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="159" t="s">
+      <c r="O15" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="159" t="s">
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
       <c r="W15" s="50"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="W19" s="50"/>
     </row>
-    <row r="20" spans="13:23" ht="70" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:23" ht="56" x14ac:dyDescent="0.2">
       <c r="M20" s="50"/>
       <c r="N20" s="52">
         <v>44316</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="W20" s="50"/>
     </row>
-    <row r="21" spans="13:23" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:23" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M21" s="50"/>
       <c r="N21" s="77">
         <v>44331</v>
@@ -6159,17 +6159,17 @@
     </row>
     <row r="22" spans="13:23" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="M22" s="50"/>
-      <c r="N22" s="162" t="s">
+      <c r="N22" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
       <c r="W22" s="50"/>
     </row>
     <row r="23" spans="13:23" x14ac:dyDescent="0.2">
@@ -6223,15 +6223,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -6246,15 +6246,15 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="50"/>
       <c r="AG3" s="50"/>
@@ -6272,15 +6272,15 @@
       <c r="AS3" s="50"/>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -6295,43 +6295,43 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="157" t="s">
+      <c r="W4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
       <c r="AE4" s="50"/>
-      <c r="AF4" s="161" t="s">
+      <c r="AF4" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
       <c r="AS4" s="50"/>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6348,33 +6348,33 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
       <c r="AE5" s="50"/>
       <c r="AF5" s="46"/>
-      <c r="AG5" s="159" t="s">
+      <c r="AG5" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="159" t="s">
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="159" t="s">
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
       <c r="AS5" s="50"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.2">
@@ -7151,15 +7151,15 @@
       <c r="AS11" s="50"/>
     </row>
     <row r="12" spans="2:45" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -7174,43 +7174,43 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="155" t="s">
+      <c r="W12" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
       <c r="AE12" s="50"/>
-      <c r="AF12" s="162" t="s">
+      <c r="AF12" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="162"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="162"/>
-      <c r="AP12" s="162"/>
-      <c r="AQ12" s="162"/>
-      <c r="AR12" s="162"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="172"/>
+      <c r="AJ12" s="172"/>
+      <c r="AK12" s="172"/>
+      <c r="AL12" s="172"/>
+      <c r="AM12" s="172"/>
+      <c r="AN12" s="172"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="172"/>
       <c r="AS12" s="50"/>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -7227,13 +7227,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="155" t="s">
+      <c r="Y13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
       <c r="AE13" s="50"/>
       <c r="AF13" s="50"/>
       <c r="AG13" s="50"/>
@@ -7858,44 +7858,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="W21" s="155" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="W21" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="155" t="s">
+      <c r="Y22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -8477,44 +8477,44 @@
     </row>
     <row r="36" spans="31:45" x14ac:dyDescent="0.2">
       <c r="AE36" s="50"/>
-      <c r="AF36" s="161" t="s">
+      <c r="AF36" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AG36" s="161"/>
-      <c r="AH36" s="161"/>
-      <c r="AI36" s="161"/>
-      <c r="AJ36" s="161"/>
-      <c r="AK36" s="161"/>
-      <c r="AL36" s="161"/>
-      <c r="AM36" s="161"/>
-      <c r="AN36" s="161"/>
-      <c r="AO36" s="161"/>
-      <c r="AP36" s="161"/>
-      <c r="AQ36" s="161"/>
-      <c r="AR36" s="161"/>
+      <c r="AG36" s="168"/>
+      <c r="AH36" s="168"/>
+      <c r="AI36" s="168"/>
+      <c r="AJ36" s="168"/>
+      <c r="AK36" s="168"/>
+      <c r="AL36" s="168"/>
+      <c r="AM36" s="168"/>
+      <c r="AN36" s="168"/>
+      <c r="AO36" s="168"/>
+      <c r="AP36" s="168"/>
+      <c r="AQ36" s="168"/>
+      <c r="AR36" s="168"/>
       <c r="AS36" s="50"/>
     </row>
     <row r="37" spans="31:45" x14ac:dyDescent="0.2">
       <c r="AE37" s="50"/>
       <c r="AF37" s="46"/>
-      <c r="AG37" s="159" t="s">
+      <c r="AG37" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="AH37" s="160"/>
-      <c r="AI37" s="160"/>
-      <c r="AJ37" s="163"/>
-      <c r="AK37" s="159" t="s">
+      <c r="AH37" s="170"/>
+      <c r="AI37" s="170"/>
+      <c r="AJ37" s="171"/>
+      <c r="AK37" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="AL37" s="160"/>
-      <c r="AM37" s="160"/>
-      <c r="AN37" s="160"/>
-      <c r="AO37" s="159" t="s">
+      <c r="AL37" s="170"/>
+      <c r="AM37" s="170"/>
+      <c r="AN37" s="170"/>
+      <c r="AO37" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="AP37" s="160"/>
-      <c r="AQ37" s="160"/>
-      <c r="AR37" s="160"/>
+      <c r="AP37" s="170"/>
+      <c r="AQ37" s="170"/>
+      <c r="AR37" s="170"/>
       <c r="AS37" s="50"/>
     </row>
     <row r="38" spans="31:45" x14ac:dyDescent="0.2">
@@ -8651,22 +8651,22 @@
       <c r="AF41" s="28">
         <v>44301</v>
       </c>
-      <c r="AG41" s="175" t="s">
+      <c r="AG41" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="AH41" s="176" t="s">
+      <c r="AH41" s="154" t="s">
         <v>262</v>
       </c>
-      <c r="AI41" s="176" t="s">
+      <c r="AI41" s="154" t="s">
         <v>267</v>
       </c>
       <c r="AJ41" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AK41" s="175" t="s">
+      <c r="AK41" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="AL41" s="176" t="s">
+      <c r="AL41" s="154" t="s">
         <v>248</v>
       </c>
       <c r="AM41" s="55" t="s">
@@ -8678,10 +8678,10 @@
       <c r="AO41" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="AP41" s="176" t="s">
+      <c r="AP41" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="AQ41" s="176" t="s">
+      <c r="AQ41" s="154" t="s">
         <v>281</v>
       </c>
       <c r="AR41" s="55" t="s">
@@ -8777,21 +8777,21 @@
     </row>
     <row r="44" spans="31:45" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AE44" s="50"/>
-      <c r="AF44" s="162" t="s">
+      <c r="AF44" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="AG44" s="162"/>
-      <c r="AH44" s="162"/>
-      <c r="AI44" s="162"/>
-      <c r="AJ44" s="162"/>
-      <c r="AK44" s="162"/>
-      <c r="AL44" s="162"/>
-      <c r="AM44" s="162"/>
-      <c r="AN44" s="162"/>
-      <c r="AO44" s="162"/>
-      <c r="AP44" s="162"/>
-      <c r="AQ44" s="162"/>
-      <c r="AR44" s="162"/>
+      <c r="AG44" s="172"/>
+      <c r="AH44" s="172"/>
+      <c r="AI44" s="172"/>
+      <c r="AJ44" s="172"/>
+      <c r="AK44" s="172"/>
+      <c r="AL44" s="172"/>
+      <c r="AM44" s="172"/>
+      <c r="AN44" s="172"/>
+      <c r="AO44" s="172"/>
+      <c r="AP44" s="172"/>
+      <c r="AQ44" s="172"/>
+      <c r="AR44" s="172"/>
       <c r="AS44" s="50"/>
     </row>
     <row r="45" spans="31:45" x14ac:dyDescent="0.2">
@@ -8829,42 +8829,42 @@
       <c r="AS46" s="50"/>
     </row>
     <row r="49" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG49" s="172"/>
-      <c r="AH49" s="172"/>
-      <c r="AI49" s="172"/>
-      <c r="AJ49" s="172"/>
+      <c r="AG49" s="150"/>
+      <c r="AH49" s="150"/>
+      <c r="AI49" s="150"/>
+      <c r="AJ49" s="150"/>
     </row>
     <row r="50" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG50" s="173"/>
+      <c r="AG50" s="151"/>
     </row>
     <row r="51" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG51" s="173"/>
-      <c r="AH51" s="173"/>
+      <c r="AG51" s="151"/>
+      <c r="AH51" s="151"/>
     </row>
     <row r="52" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG52" s="173"/>
-      <c r="AH52" s="173"/>
-      <c r="AI52" s="173"/>
+      <c r="AG52" s="151"/>
+      <c r="AH52" s="151"/>
+      <c r="AI52" s="151"/>
     </row>
     <row r="53" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG53" s="173"/>
-      <c r="AH53" s="173"/>
-      <c r="AI53" s="173"/>
-      <c r="AJ53" s="173"/>
+      <c r="AG53" s="151"/>
+      <c r="AH53" s="151"/>
+      <c r="AI53" s="151"/>
+      <c r="AJ53" s="151"/>
     </row>
     <row r="54" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG54" s="173"/>
-      <c r="AH54" s="173"/>
-      <c r="AI54" s="173"/>
-      <c r="AJ54" s="173"/>
+      <c r="AG54" s="151"/>
+      <c r="AH54" s="151"/>
+      <c r="AI54" s="151"/>
+      <c r="AJ54" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AF36:AR36"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AF44:AR44"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="W21:AC21"/>
     <mergeCell ref="Y22:AC22"/>
@@ -8879,11 +8879,11 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AF12:AR12"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AF36:AR36"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AF44:AR44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8957,10 +8957,10 @@
       <c r="M3" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="172">
+      <c r="Q3" s="150">
         <v>44270</v>
       </c>
-      <c r="X3" s="172">
+      <c r="X3" s="150">
         <v>44270</v>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       <c r="S4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="172">
+      <c r="W4" s="150">
         <v>44331</v>
       </c>
       <c r="X4" s="85" t="s">
@@ -9131,7 +9131,7 @@
         <f t="shared" si="2"/>
         <v>176.81740350291579</v>
       </c>
-      <c r="O6" s="172"/>
+      <c r="O6" s="150"/>
       <c r="P6" s="85" t="str">
         <f t="shared" si="3"/>
         <v>11.4 [8.7, 14.5]
@@ -9277,7 +9277,7 @@
         <f t="shared" si="2"/>
         <v>122.13446273723106</v>
       </c>
-      <c r="O8" s="172">
+      <c r="O8" s="150">
         <v>44331</v>
       </c>
       <c r="P8" s="85" t="str">
@@ -9771,8 +9771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DF5461-E19E-644C-9379-AB0909192BB2}">
   <dimension ref="B3:AR40"/>
   <sheetViews>
-    <sheetView topLeftCell="R19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40:AR40"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12:AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9789,15 +9789,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -9812,26 +9812,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -9846,41 +9846,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="157" t="s">
+      <c r="W4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AF4" s="156" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AF4" s="164" t="s">
         <v>374</v>
       </c>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="164"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="164"/>
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="164"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="164"/>
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="164"/>
+      <c r="AR4" s="164"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -9897,32 +9897,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="164" t="s">
+      <c r="AG5" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="164" t="s">
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="164" t="s">
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -10362,10 +10362,10 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="175" t="s">
+      <c r="AG9" s="153" t="s">
         <v>346</v>
       </c>
-      <c r="AH9" s="176" t="s">
+      <c r="AH9" s="154" t="s">
         <v>347</v>
       </c>
       <c r="AI9" s="55" t="s">
@@ -10374,10 +10374,10 @@
       <c r="AJ9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AK9" s="175" t="s">
+      <c r="AK9" s="153" t="s">
         <v>294</v>
       </c>
-      <c r="AL9" s="176" t="s">
+      <c r="AL9" s="154" t="s">
         <v>341</v>
       </c>
       <c r="AM9" s="55" t="s">
@@ -10392,7 +10392,7 @@
       <c r="AP9" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="AQ9" s="176" t="s">
+      <c r="AQ9" s="154" t="s">
         <v>313</v>
       </c>
       <c r="AR9" s="55" t="s">
@@ -10686,15 +10686,15 @@
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -10709,41 +10709,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="155" t="s">
+      <c r="W12" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AF12" s="177" t="s">
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AF12" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="166"/>
-      <c r="AQ12" s="166"/>
-      <c r="AR12" s="166"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="176"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="176"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -10760,13 +10760,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="155" t="s">
+      <c r="Y13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -11361,44 +11361,44 @@
       </c>
     </row>
     <row r="21" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="W21" s="155" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="W21" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
     </row>
     <row r="22" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="155" t="s">
+      <c r="Y22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
     </row>
     <row r="23" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -11962,42 +11962,42 @@
     </row>
     <row r="30" spans="2:44" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="AF32" s="156" t="s">
+      <c r="AF32" s="164" t="s">
         <v>380</v>
       </c>
-      <c r="AG32" s="156"/>
-      <c r="AH32" s="156"/>
-      <c r="AI32" s="156"/>
-      <c r="AJ32" s="156"/>
-      <c r="AK32" s="156"/>
-      <c r="AL32" s="156"/>
-      <c r="AM32" s="156"/>
-      <c r="AN32" s="156"/>
-      <c r="AO32" s="156"/>
-      <c r="AP32" s="156"/>
-      <c r="AQ32" s="156"/>
-      <c r="AR32" s="156"/>
+      <c r="AG32" s="164"/>
+      <c r="AH32" s="164"/>
+      <c r="AI32" s="164"/>
+      <c r="AJ32" s="164"/>
+      <c r="AK32" s="164"/>
+      <c r="AL32" s="164"/>
+      <c r="AM32" s="164"/>
+      <c r="AN32" s="164"/>
+      <c r="AO32" s="164"/>
+      <c r="AP32" s="164"/>
+      <c r="AQ32" s="164"/>
+      <c r="AR32" s="164"/>
     </row>
     <row r="33" spans="32:44" x14ac:dyDescent="0.2">
       <c r="AF33" s="1"/>
-      <c r="AG33" s="164" t="s">
+      <c r="AG33" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="165"/>
-      <c r="AK33" s="164" t="s">
+      <c r="AH33" s="166"/>
+      <c r="AI33" s="166"/>
+      <c r="AJ33" s="174"/>
+      <c r="AK33" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="164" t="s">
+      <c r="AL33" s="166"/>
+      <c r="AM33" s="166"/>
+      <c r="AN33" s="166"/>
+      <c r="AO33" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="AP33" s="157"/>
-      <c r="AQ33" s="157"/>
-      <c r="AR33" s="157"/>
+      <c r="AP33" s="166"/>
+      <c r="AQ33" s="166"/>
+      <c r="AR33" s="166"/>
     </row>
     <row r="34" spans="32:44" x14ac:dyDescent="0.2">
       <c r="AF34" s="2" t="s">
@@ -12126,10 +12126,10 @@
       <c r="AF37" s="28">
         <v>44301</v>
       </c>
-      <c r="AG37" s="175" t="s">
+      <c r="AG37" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="AH37" s="176" t="s">
+      <c r="AH37" s="154" t="s">
         <v>262</v>
       </c>
       <c r="AI37" s="55" t="s">
@@ -12138,10 +12138,10 @@
       <c r="AJ37" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AK37" s="175" t="s">
+      <c r="AK37" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="AL37" s="176" t="s">
+      <c r="AL37" s="154" t="s">
         <v>248</v>
       </c>
       <c r="AM37" s="55" t="s">
@@ -12156,7 +12156,7 @@
       <c r="AP37" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="AQ37" s="176" t="s">
+      <c r="AQ37" s="154" t="s">
         <v>281</v>
       </c>
       <c r="AR37" s="55" t="s">
@@ -12246,29 +12246,35 @@
       </c>
     </row>
     <row r="40" spans="32:44" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AF40" s="177" t="s">
+      <c r="AF40" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="AG40" s="166"/>
-      <c r="AH40" s="166"/>
-      <c r="AI40" s="166"/>
-      <c r="AJ40" s="166"/>
-      <c r="AK40" s="166"/>
-      <c r="AL40" s="166"/>
-      <c r="AM40" s="166"/>
-      <c r="AN40" s="166"/>
-      <c r="AO40" s="166"/>
-      <c r="AP40" s="166"/>
-      <c r="AQ40" s="166"/>
-      <c r="AR40" s="166"/>
+      <c r="AG40" s="176"/>
+      <c r="AH40" s="176"/>
+      <c r="AI40" s="176"/>
+      <c r="AJ40" s="176"/>
+      <c r="AK40" s="176"/>
+      <c r="AL40" s="176"/>
+      <c r="AM40" s="176"/>
+      <c r="AN40" s="176"/>
+      <c r="AO40" s="176"/>
+      <c r="AP40" s="176"/>
+      <c r="AQ40" s="176"/>
+      <c r="AR40" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AF32:AR32"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="AK33:AN33"/>
-    <mergeCell ref="AO33:AR33"/>
-    <mergeCell ref="AF40:AR40"/>
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -12277,17 +12283,11 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="AF32:AR32"/>
+    <mergeCell ref="AG33:AJ33"/>
+    <mergeCell ref="AK33:AN33"/>
+    <mergeCell ref="AO33:AR33"/>
+    <mergeCell ref="AF40:AR40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12333,38 +12333,38 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="50"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" s="50"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
@@ -12477,20 +12477,20 @@
     </row>
     <row r="14" spans="3:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C14" s="50"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
       <c r="R14" s="50"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
@@ -12549,38 +12549,38 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="50"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
       <c r="R20" s="50"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="50"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
       <c r="R21" s="50"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.2">
@@ -12693,20 +12693,20 @@
     </row>
     <row r="28" spans="3:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C28" s="50"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
       <c r="R28" s="50"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
@@ -12746,62 +12746,62 @@
       <c r="R30" s="50"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D36" s="154" t="s">
+      <c r="D36" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="154"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="159"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D37" s="104"/>
       <c r="E37" s="104"/>
-      <c r="F37" s="167" t="s">
+      <c r="F37" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="167"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
+      <c r="Q37" s="178"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
-      <c r="F38" s="151" t="s">
+      <c r="F38" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="151" t="s">
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="152"/>
-      <c r="L38" s="152"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="151" t="s">
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="152"/>
-      <c r="P38" s="152"/>
-      <c r="Q38" s="152"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D39" s="106" t="s">
@@ -13070,42 +13070,42 @@
     <row r="45" spans="4:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
-      <c r="F45" s="168" t="s">
+      <c r="F45" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="168"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
-      <c r="O45" s="168"/>
-      <c r="P45" s="168"/>
-      <c r="Q45" s="168"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="179"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="179"/>
+      <c r="M45" s="179"/>
+      <c r="N45" s="179"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="179"/>
+      <c r="Q45" s="179"/>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
-      <c r="F46" s="151" t="s">
+      <c r="F46" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="151" t="s">
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="151" t="s">
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="161"/>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D47" s="106" t="s">
@@ -13372,35 +13372,25 @@
       </c>
     </row>
     <row r="53" spans="4:17" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="169" t="s">
+      <c r="D53" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="E53" s="169"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="169"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="169"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="169"/>
-      <c r="Q53" s="169"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="D14:Q14"/>
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:M46"/>
@@ -13411,6 +13401,16 @@
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="F37:Q37"/>
     <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="D28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13445,83 +13445,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="X3" s="156" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="X3" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
     </row>
     <row r="4" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="X4" s="157" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="X4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AG4" s="156" t="s">
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AG4" s="164" t="s">
         <v>382</v>
       </c>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
+      <c r="AH4" s="164"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="164"/>
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="164"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="164"/>
     </row>
     <row r="5" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="Z5" s="155" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="Z5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AH5" s="164" t="s">
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AH5" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="164" t="s">
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
     </row>
     <row r="6" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
@@ -14043,28 +14043,28 @@
       <c r="AG10" s="28">
         <v>44316</v>
       </c>
-      <c r="AH10" s="175" t="s">
+      <c r="AH10" s="153" t="s">
         <v>389</v>
       </c>
-      <c r="AI10" s="176" t="s">
+      <c r="AI10" s="154" t="s">
         <v>390</v>
       </c>
-      <c r="AJ10" s="176" t="s">
+      <c r="AJ10" s="154" t="s">
         <v>391</v>
       </c>
-      <c r="AK10" s="181" t="s">
+      <c r="AK10" s="158" t="s">
         <v>392</v>
       </c>
-      <c r="AL10" s="175" t="s">
+      <c r="AL10" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="AM10" s="176" t="s">
+      <c r="AM10" s="154" t="s">
         <v>329</v>
       </c>
-      <c r="AN10" s="176" t="s">
+      <c r="AN10" s="154" t="s">
         <v>330</v>
       </c>
-      <c r="AO10" s="176" t="s">
+      <c r="AO10" s="154" t="s">
         <v>331</v>
       </c>
     </row>
@@ -14169,77 +14169,77 @@
       <c r="AG11" s="41">
         <v>44331</v>
       </c>
-      <c r="AH11" s="178" t="s">
+      <c r="AH11" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="AI11" s="179" t="s">
+      <c r="AI11" s="156" t="s">
         <v>394</v>
       </c>
-      <c r="AJ11" s="179" t="s">
+      <c r="AJ11" s="156" t="s">
         <v>395</v>
       </c>
-      <c r="AK11" s="180" t="s">
+      <c r="AK11" s="157" t="s">
         <v>396</v>
       </c>
-      <c r="AL11" s="178" t="s">
+      <c r="AL11" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="AM11" s="179" t="s">
+      <c r="AM11" s="156" t="s">
         <v>333</v>
       </c>
-      <c r="AN11" s="179" t="s">
+      <c r="AN11" s="156" t="s">
         <v>334</v>
       </c>
-      <c r="AO11" s="179" t="s">
+      <c r="AO11" s="156" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="12" spans="3:41" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="X12" s="155" t="s">
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="X12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AG12" s="177" t="s">
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AG12" s="175" t="s">
         <v>381</v>
       </c>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="176"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="176"/>
     </row>
     <row r="13" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="Z13" s="155" t="s">
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="Z13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
+      <c r="AD13" s="165"/>
     </row>
     <row r="14" spans="3:41" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
@@ -14828,6 +14828,12 @@
     <row r="21" spans="3:30" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AG4:AO4"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AG12:AO12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="X12:AD12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="Z13:AD13"/>
     <mergeCell ref="C3:I3"/>
@@ -14836,12 +14842,6 @@
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="AG4:AO4"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AG12:AO12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="X12:AD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14870,15 +14870,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -14893,26 +14893,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -14927,41 +14927,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="157" t="s">
+      <c r="W4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AF4" s="156" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AF4" s="164" t="s">
         <v>440</v>
       </c>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="164"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="164"/>
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="164"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="164"/>
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="164"/>
+      <c r="AR4" s="164"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -14978,32 +14978,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="164" t="s">
+      <c r="AG5" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="164" t="s">
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="164" t="s">
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -15443,25 +15443,25 @@
       <c r="AF9" s="28">
         <v>44301</v>
       </c>
-      <c r="AG9" s="175" t="s">
+      <c r="AG9" s="153" t="s">
         <v>400</v>
       </c>
-      <c r="AH9" s="176" t="s">
+      <c r="AH9" s="154" t="s">
         <v>401</v>
       </c>
-      <c r="AI9" s="176" t="s">
+      <c r="AI9" s="154" t="s">
         <v>402</v>
       </c>
       <c r="AJ9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AK9" s="175" t="s">
+      <c r="AK9" s="153" t="s">
         <v>414</v>
       </c>
-      <c r="AL9" s="176" t="s">
+      <c r="AL9" s="154" t="s">
         <v>415</v>
       </c>
-      <c r="AM9" s="176" t="s">
+      <c r="AM9" s="154" t="s">
         <v>416</v>
       </c>
       <c r="AN9" s="55" t="s">
@@ -15470,10 +15470,10 @@
       <c r="AO9" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="AP9" s="176" t="s">
+      <c r="AP9" s="154" t="s">
         <v>429</v>
       </c>
-      <c r="AQ9" s="176" t="s">
+      <c r="AQ9" s="154" t="s">
         <v>430</v>
       </c>
       <c r="AR9" s="55" t="s">
@@ -15767,15 +15767,15 @@
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -15790,41 +15790,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="155" t="s">
+      <c r="W12" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AF12" s="166" t="s">
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AF12" s="176" t="s">
         <v>439</v>
       </c>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="166"/>
-      <c r="AQ12" s="166"/>
-      <c r="AR12" s="166"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="176"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="176"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -15841,13 +15841,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="155" t="s">
+      <c r="Y13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -16442,44 +16442,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="W21" s="155" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="W21" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="155" t="s">
+      <c r="Y22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -17044,6 +17044,17 @@
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -17052,17 +17063,6 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17072,7 +17072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D128970-B007-A34B-8156-C6D1E235C2B8}">
   <dimension ref="B3:AR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AF4" sqref="AF4:AR12"/>
     </sheetView>
   </sheetViews>
@@ -17090,15 +17090,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -17113,26 +17113,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="156" t="s">
+      <c r="W3" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -17147,41 +17147,41 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="157" t="s">
+      <c r="W4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AF4" s="156" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AF4" s="164" t="s">
         <v>469</v>
       </c>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="164"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="164"/>
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="164"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="164"/>
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="164"/>
+      <c r="AR4" s="164"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -17198,32 +17198,32 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="164" t="s">
+      <c r="AG5" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="164" t="s">
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="164" t="s">
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
@@ -17987,15 +17987,15 @@
       </c>
     </row>
     <row r="12" spans="2:44" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -18010,41 +18010,41 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="155" t="s">
+      <c r="W12" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AF12" s="177" t="s">
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AF12" s="175" t="s">
         <v>470</v>
       </c>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="166"/>
-      <c r="AQ12" s="166"/>
-      <c r="AR12" s="166"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="176"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="176"/>
+      <c r="AN12" s="176"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="176"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -18061,13 +18061,13 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="155" t="s">
+      <c r="Y13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -18662,44 +18662,44 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="W21" s="155" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="W21" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="155" t="s">
+      <c r="Y22" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
@@ -19264,6 +19264,17 @@
     <row r="30" spans="2:29" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AF4:AR4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AF12:AR12"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="B12:H12"/>
@@ -19272,17 +19283,6 @@
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="W21:AC21"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AF4:AR4"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AF12:AR12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19319,26 +19319,26 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="171" t="s">
+      <c r="I2" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="46"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="155"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="17"/>
       <c r="G3" s="12" t="s">
         <v>61</v>
